--- a/Tickets/Normal Tickets/Ticket 38892 - Email Corrections/EmailList.xlsx
+++ b/Tickets/Normal Tickets/Ticket 38892 - Email Corrections/EmailList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 38892 - Email Corrections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8146FB-2078-4FCF-8AF0-F6D84DA634D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD115EE4-2C97-46CB-9255-6454E1D7CFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-14700" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{4FB7900E-0809-4FD6-A3A2-F06F15C78F26}"/>
+    <workbookView xWindow="4200" yWindow="2520" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4FB7900E-0809-4FD6-A3A2-F06F15C78F26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,16 +606,16 @@
       <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>301</v>
       </c>
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>301</v>
       </c>
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>301</v>
       </c>
@@ -683,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>302</v>
       </c>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>302</v>
       </c>
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>302</v>
       </c>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>303</v>
       </c>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>303</v>
       </c>
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>303</v>
       </c>
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>304</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>304</v>
       </c>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>304</v>
       </c>
@@ -836,7 +836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>305</v>
       </c>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>305</v>
       </c>
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>305</v>
       </c>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>306</v>
       </c>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>306</v>
       </c>
@@ -921,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>306</v>
       </c>
@@ -938,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>307</v>
       </c>
@@ -955,7 +955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>307</v>
       </c>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>307</v>
       </c>
@@ -989,7 +989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>308</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>308</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>308</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>309</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>309</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>309</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>310</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>310</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>310</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>311</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>311</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>311</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>312</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>312</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>312</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>313</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>313</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>313</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>314</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>314</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>314</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>315</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>315</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>315</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>316</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>316</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>316</v>
       </c>
@@ -1458,18 +1458,18 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>301</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>301</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>302</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>302</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>314</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>314</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>307</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>307</v>
       </c>
